--- a/medicine/Psychotrope/Glenfarclas/Glenfarclas.xlsx
+++ b/medicine/Psychotrope/Glenfarclas/Glenfarclas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Glenfarclas est une distillerie de whisky située à Ballindalloch dans la région du Speyside en Écosse. Glenfarclas (qui signifie « Vallée de l’herbe verte ») est la propriété de la famille Grant, ce qui lui assure une certaine indépendance.
-La distillerie a été créée par Robert Hay en 1836. Il choisit un site occupé par une ancienne distillerie depuis 1797. Elle est rachetée en 1865 au prix de 511 livres sterling et 19 shillings[1] par la famille Grant, qui en est toujours propriétaire. C’est aujourd’hui l'une des dernières distilleries familiales.
+La distillerie a été créée par Robert Hay en 1836. Il choisit un site occupé par une ancienne distillerie depuis 1797. Elle est rachetée en 1865 au prix de 511 livres sterling et 19 shillings par la famille Grant, qui en est toujours propriétaire. C’est aujourd’hui l'une des dernières distilleries familiales.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Embouteillages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Glenfarclas 10 ans
 Glenfarclas 12 ans
